--- a/10-MG620_input_data.xlsx
+++ b/10-MG620_input_data.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>median_household_income</t>
+          <t>median_market_heat_index</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
